--- a/reaction maps/charlie_h7d.xlsx
+++ b/reaction maps/charlie_h7d.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13600" windowHeight="5030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13600" windowHeight="5030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plate map" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Experiment Title:</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Protein</t>
-  </si>
-  <si>
-    <t>ctb_mix</t>
   </si>
   <si>
     <t>charlie_h7d</t>
@@ -869,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -901,10 +898,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -915,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -935,7 +932,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -955,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -975,7 +972,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -995,7 +992,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1015,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1035,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1055,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1077,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1114,11 +1111,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1131,11 +1128,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
